--- a/mystuff/CostProfit.xlsx
+++ b/mystuff/CostProfit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitRepos\pokemon-tcg-data\mystuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE33B90-CFD4-4136-BCD9-4BB010332930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451966E9-A652-4625-9635-6624E63ED484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
+    <workbookView xWindow="-26220" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>AMOUNT</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>ZoruaPK39</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/mes/transactionlist</t>
   </si>
 </sst>
 </file>
@@ -66,10 +72,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,14 +106,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B303E50-0A7C-42F5-AA48-761DD09A52A4}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +441,7 @@
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,17 +449,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.99</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1.29</v>
+        <v>0.81</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -452,26 +469,40 @@
       </c>
       <c r="E3" s="1">
         <f>SUM(A:A)</f>
-        <v>4.5600000000000005</v>
+        <v>3.35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.99</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1.29</v>
+        <v>0.81</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{63BFAAC9-CBE4-4D29-9E50-EBF20256E2C9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mystuff/CostProfit.xlsx
+++ b/mystuff/CostProfit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitRepos\pokemon-tcg-data\mystuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451966E9-A652-4625-9635-6624E63ED484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81BC0E3-1CD5-40EF-8C71-79772AC7D343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26220" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
+    <workbookView xWindow="-24060" yWindow="915" windowWidth="21600" windowHeight="11385" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>AMOUNT</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>https://www.ebay.com/mes/transactionlist</t>
+  </si>
+  <si>
+    <t>PikachuPK25</t>
+  </si>
+  <si>
+    <t>LucarioPK191</t>
+  </si>
+  <si>
+    <t>Stamps 5-2-23</t>
+  </si>
+  <si>
+    <t>KrokorokPK43</t>
   </si>
 </sst>
 </file>
@@ -429,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B303E50-0A7C-42F5-AA48-761DD09A52A4}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +481,7 @@
       </c>
       <c r="E3" s="1">
         <f>SUM(A:A)</f>
-        <v>3.35</v>
+        <v>-5.97</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
@@ -497,6 +509,38 @@
       </c>
       <c r="B6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>-12.6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/mystuff/CostProfit.xlsx
+++ b/mystuff/CostProfit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitRepos\pokemon-tcg-data\mystuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81BC0E3-1CD5-40EF-8C71-79772AC7D343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFDCEC1-6164-43B2-A108-554912A97BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24060" yWindow="915" windowWidth="21600" windowHeight="11385" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>AMOUNT</t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t>KrokorokPK43</t>
+  </si>
+  <si>
+    <t>MisdreavusPK236</t>
+  </si>
+  <si>
+    <t>.63 each</t>
+  </si>
+  <si>
+    <t>Stamp</t>
+  </si>
+  <si>
+    <t>LitleoPK19</t>
+  </si>
+  <si>
+    <t>CherubiPK203</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TurtwigPK202</t>
   </si>
 </sst>
 </file>
@@ -84,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +120,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,10 +157,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -441,112 +482,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B303E50-0A7C-42F5-AA48-761DD09A52A4}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="5">
+        <v>45039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.81</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="5">
+        <v>45039</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <f>SUM(A:A)</f>
-        <v>-5.97</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>7.339999999999999</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="5">
+        <v>45039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.81</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.63</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.89</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <v>45046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1.84</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>-12.6</v>
-      </c>
+      <c r="C9" s="5">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
+      <c r="C10" s="5">
+        <v>45048</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-12.6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45048</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I20" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{63BFAAC9-CBE4-4D29-9E50-EBF20256E2C9}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{63BFAAC9-CBE4-4D29-9E50-EBF20256E2C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/mystuff/CostProfit.xlsx
+++ b/mystuff/CostProfit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitRepos\pokemon-tcg-data\mystuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFDCEC1-6164-43B2-A108-554912A97BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2ECB88-2606-4399-B9EB-BABB0D15C0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
+    <workbookView xWindow="-23880" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>AMOUNT</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>TurtwigPK202</t>
+  </si>
+  <si>
+    <t>YamperPK30</t>
+  </si>
+  <si>
+    <t>Speed StadiumPK107</t>
   </si>
 </sst>
 </file>
@@ -157,15 +163,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -482,17 +486,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B303E50-0A7C-42F5-AA48-761DD09A52A4}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -502,7 +506,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -532,7 +536,7 @@
       </c>
       <c r="F3" s="1">
         <f>SUM(A:A)</f>
-        <v>7.339999999999999</v>
+        <v>7.4299999999999988</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
@@ -698,8 +702,44 @@
       </c>
       <c r="C18" s="5"/>
     </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45056</v>
+      </c>
+    </row>
     <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I20" s="8"/>
+      <c r="A20" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/mystuff/CostProfit.xlsx
+++ b/mystuff/CostProfit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitRepos\pokemon-tcg-data\mystuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2ECB88-2606-4399-B9EB-BABB0D15C0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8B2024-2B5B-4BF8-9543-AFA77F489B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23880" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
+    <workbookView xWindow="-24435" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>AMOUNT</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Speed StadiumPK107</t>
+  </si>
+  <si>
+    <t>EeveePK332</t>
   </si>
 </sst>
 </file>
@@ -486,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B303E50-0A7C-42F5-AA48-761DD09A52A4}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +539,7 @@
       </c>
       <c r="F3" s="1">
         <f>SUM(A:A)</f>
-        <v>7.4299999999999988</v>
+        <v>8.6299999999999972</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
@@ -738,6 +741,25 @@
         <v>-0.63</v>
       </c>
       <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B24" t="s">
         <v>15</v>
       </c>
     </row>

--- a/mystuff/CostProfit.xlsx
+++ b/mystuff/CostProfit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitRepos\pokemon-tcg-data\mystuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8B2024-2B5B-4BF8-9543-AFA77F489B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9E0DAB-A831-4A32-A799-7DCE84CF812B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24435" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>AMOUNT</t>
   </si>
@@ -105,6 +105,33 @@
   </si>
   <si>
     <t>EeveePK332</t>
+  </si>
+  <si>
+    <t>GiratinaPK251</t>
+  </si>
+  <si>
+    <t>Nest BallPK396</t>
+  </si>
+  <si>
+    <t>MachokePK407</t>
+  </si>
+  <si>
+    <t>MewtwoPK367</t>
+  </si>
+  <si>
+    <t>BraixenPK262</t>
+  </si>
+  <si>
+    <t>MachampPK369</t>
+  </si>
+  <si>
+    <t>Fossil EscavatorPK17</t>
+  </si>
+  <si>
+    <t>EeveePK210</t>
+  </si>
+  <si>
+    <t>DittoPK365</t>
   </si>
 </sst>
 </file>
@@ -489,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B303E50-0A7C-42F5-AA48-761DD09A52A4}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +566,7 @@
       </c>
       <c r="F3" s="1">
         <f>SUM(A:A)</f>
-        <v>8.6299999999999972</v>
+        <v>14.399999999999988</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
@@ -760,6 +787,177 @@
         <v>-0.63</v>
       </c>
       <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45073</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="5">
+        <v>45073</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="5">
+        <v>45074</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="5">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="5">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="5">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B42" t="s">
         <v>15</v>
       </c>
     </row>

--- a/mystuff/CostProfit.xlsx
+++ b/mystuff/CostProfit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitRepos\pokemon-tcg-data\mystuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9E0DAB-A831-4A32-A799-7DCE84CF812B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9269C7-8F27-46DD-BFBC-13341CDF9343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>AMOUNT</t>
   </si>
@@ -132,6 +132,45 @@
   </si>
   <si>
     <t>DittoPK365</t>
+  </si>
+  <si>
+    <t>CubonePK439</t>
+  </si>
+  <si>
+    <t>Holon MentorPK247</t>
+  </si>
+  <si>
+    <t>Lysandre's Trump CardPK260</t>
+  </si>
+  <si>
+    <t>Energy SwitchPK177</t>
+  </si>
+  <si>
+    <t>Full HealPK182</t>
+  </si>
+  <si>
+    <t>LickitungPK209</t>
+  </si>
+  <si>
+    <t>(this and full heal on same order)</t>
+  </si>
+  <si>
+    <t>LudicoloPK350</t>
+  </si>
+  <si>
+    <t>MewtwoPK366</t>
+  </si>
+  <si>
+    <t>ChimechoPK238</t>
+  </si>
+  <si>
+    <t>PsyduckPK362</t>
+  </si>
+  <si>
+    <t>GoomyPK454</t>
+  </si>
+  <si>
+    <t>VoltorbPK312</t>
   </si>
 </sst>
 </file>
@@ -516,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B303E50-0A7C-42F5-AA48-761DD09A52A4}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +605,7 @@
       </c>
       <c r="F3" s="1">
         <f>SUM(A:A)</f>
-        <v>14.399999999999988</v>
+        <v>23.449999999999992</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
@@ -958,6 +997,205 @@
         <v>-0.63</v>
       </c>
       <c r="B42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="5">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="5">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="5">
+        <v>45080</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="5">
+        <v>45080</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B65" t="s">
         <v>15</v>
       </c>
     </row>

--- a/mystuff/CostProfit.xlsx
+++ b/mystuff/CostProfit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitRepos\pokemon-tcg-data\mystuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9269C7-8F27-46DD-BFBC-13341CDF9343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFF509D-B684-42F2-A012-70C3F076E611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>AMOUNT</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>VoltorbPK312</t>
+  </si>
+  <si>
+    <t>BulbasaurPK345</t>
+  </si>
+  <si>
+    <t>ScatterbugPK20</t>
+  </si>
+  <si>
+    <t>PikachuPK235</t>
+  </si>
+  <si>
+    <t>Porygon2PK225</t>
+  </si>
+  <si>
+    <t>CubchooPK57</t>
   </si>
 </sst>
 </file>
@@ -555,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B303E50-0A7C-42F5-AA48-761DD09A52A4}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +620,7 @@
       </c>
       <c r="F3" s="1">
         <f>SUM(A:A)</f>
-        <v>23.449999999999992</v>
+        <v>24.599999999999994</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
@@ -1196,6 +1211,86 @@
         <v>-0.63</v>
       </c>
       <c r="B65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B75" t="s">
         <v>15</v>
       </c>
     </row>

--- a/mystuff/CostProfit.xlsx
+++ b/mystuff/CostProfit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitRepos\pokemon-tcg-data\mystuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFF509D-B684-42F2-A012-70C3F076E611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5939881F-1254-403A-90DE-6469BC4EC2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>AMOUNT</t>
   </si>
@@ -186,6 +186,24 @@
   </si>
   <si>
     <t>CubchooPK57</t>
+  </si>
+  <si>
+    <t>100 Envelopes</t>
+  </si>
+  <si>
+    <t>.02 each</t>
+  </si>
+  <si>
+    <t>.65 total</t>
+  </si>
+  <si>
+    <t>Stamp/Envelope</t>
+  </si>
+  <si>
+    <t>Holon MentorPK475</t>
+  </si>
+  <si>
+    <t>SlowbroPK404</t>
   </si>
 </sst>
 </file>
@@ -570,10 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B303E50-0A7C-42F5-AA48-761DD09A52A4}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +602,7 @@
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -593,8 +612,18 @@
       <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1">
+        <f>SUM(A:A)</f>
+        <v>26.999999999999996</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -605,7 +634,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.81</v>
       </c>
@@ -615,18 +644,8 @@
       <c r="C3" s="5">
         <v>45039</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1">
-        <f>SUM(A:A)</f>
-        <v>24.599999999999994</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -637,7 +656,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.81</v>
       </c>
@@ -648,7 +667,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.63</v>
       </c>
@@ -659,7 +678,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.89</v>
       </c>
@@ -669,8 +688,14 @@
       <c r="C7" s="5">
         <v>45044</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>-12.6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -680,8 +705,11 @@
       <c r="C8" s="5">
         <v>45046</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1.84</v>
       </c>
@@ -691,22 +719,25 @@
       <c r="C9" s="5">
         <v>45048</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>-1.97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5">
         <v>45048</v>
       </c>
-      <c r="K10" s="1">
-        <v>-12.6</v>
-      </c>
-      <c r="L10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.89</v>
       </c>
@@ -716,19 +747,19 @@
       <c r="C11" s="5">
         <v>45048</v>
       </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>-0.63</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -739,7 +770,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>-0.63</v>
       </c>
@@ -747,7 +778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.98</v>
       </c>
@@ -758,7 +789,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>-0.63</v>
       </c>
@@ -1206,7 +1237,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>-0.63</v>
       </c>
@@ -1214,7 +1245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.98</v>
       </c>
@@ -1222,7 +1253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>-0.63</v>
       </c>
@@ -1230,7 +1261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.81</v>
       </c>
@@ -1238,7 +1269,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>-0.63</v>
       </c>
@@ -1246,7 +1277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.89</v>
       </c>
@@ -1254,7 +1285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>-0.63</v>
       </c>
@@ -1262,7 +1293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.9</v>
       </c>
@@ -1270,7 +1301,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>-0.63</v>
       </c>
@@ -1278,7 +1309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.72</v>
       </c>
@@ -1286,17 +1317,50 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>-0.63</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>2.87</v>
+      </c>
+      <c r="B76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>-0.63</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>-0.65</v>
+      </c>
+      <c r="B79" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{63BFAAC9-CBE4-4D29-9E50-EBF20256E2C9}"/>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{63BFAAC9-CBE4-4D29-9E50-EBF20256E2C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/mystuff/CostProfit.xlsx
+++ b/mystuff/CostProfit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitRepos\pokemon-tcg-data\mystuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5939881F-1254-403A-90DE-6469BC4EC2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9BEEA5-1578-4021-AF0A-89E1176F02F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0026277-9603-44D4-A951-2AD4F72FAA9F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>AMOUNT</t>
   </si>
@@ -204,6 +204,45 @@
   </si>
   <si>
     <t>SlowbroPK404</t>
+  </si>
+  <si>
+    <t>DedennePK452</t>
+  </si>
+  <si>
+    <t>Alolan SandshrewPK399</t>
+  </si>
+  <si>
+    <t>SlowpokePK196</t>
+  </si>
+  <si>
+    <t>MachampPK368</t>
+  </si>
+  <si>
+    <t>JigglypuffPK370</t>
+  </si>
+  <si>
+    <t>Cursed StonePK282</t>
+  </si>
+  <si>
+    <t>Cursed StonePK281</t>
+  </si>
+  <si>
+    <t>EmolgaPK51</t>
+  </si>
+  <si>
+    <t>Rocket's Admin.PK198</t>
+  </si>
+  <si>
+    <t>Great BallPK245</t>
+  </si>
+  <si>
+    <t>Holon MentorPK249</t>
+  </si>
+  <si>
+    <t>Meteor FallsPK266</t>
+  </si>
+  <si>
+    <t>HoopaPK451</t>
   </si>
 </sst>
 </file>
@@ -588,11 +627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B303E50-0A7C-42F5-AA48-761DD09A52A4}">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +656,7 @@
       </c>
       <c r="F1" s="1">
         <f>SUM(A:A)</f>
-        <v>26.999999999999996</v>
+        <v>38.520000000000003</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -1355,6 +1394,170 @@
         <v>-0.65</v>
       </c>
       <c r="B79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>-0.65</v>
+      </c>
+      <c r="B81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="B82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>-0.65</v>
+      </c>
+      <c r="B83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>-0.65</v>
+      </c>
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>-0.65</v>
+      </c>
+      <c r="B87" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="B88" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>-0.65</v>
+      </c>
+      <c r="B89" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>-0.65</v>
+      </c>
+      <c r="B92" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="B93" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>-0.65</v>
+      </c>
+      <c r="B94" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>7.33</v>
+      </c>
+      <c r="B98" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>-0.65</v>
+      </c>
+      <c r="B99" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="B100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>-0.65</v>
+      </c>
+      <c r="B101" t="s">
         <v>53</v>
       </c>
     </row>
